--- a/CreateScripts/Anthony/Excel/Employee_Schedule.xlsx
+++ b/CreateScripts/Anthony/Excel/Employee_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Vu\Desktop\Uni. Stuff\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B7124-AF3A-4B84-9292-7FE834DC4323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9BE66-CF2C-421F-9DAD-979734B55EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="600" windowWidth="11052" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,11 +377,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="1">
         <v>44494</v>
       </c>
       <c r="C2">
-        <v>12345</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44309</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44410</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44323</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
